--- a/05_DB모델링/03. 논리적설계/관계형스키마_폴리모피즘 팀.xlsx
+++ b/05_DB모델링/03. 논리적설계/관계형스키마_폴리모피즘 팀.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungy\Documents\★_개인플젝\8차_팀플젝\05_DB모델링\03. 논리적설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F011058-50E4-4F1E-902B-1102550A7A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AF0174-355A-4C89-B130-4BD455973B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6672" yWindow="216" windowWidth="17220" windowHeight="10776" xr2:uid="{2E37907A-5928-4214-AEB3-58C45E01245E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2E37907A-5928-4214-AEB3-58C45E01245E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
   <si>
     <t>주문</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,10 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이디(FK)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,10 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>글번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>글제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,14 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>indent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비공개여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,47 +140,195 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>파일번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>파일명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사진첨부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>리뷰게시판</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(공급일자)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(공급량)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">(괄호): 개념적설계에서 누락된 공급부분 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>step</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품번호(FK)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(작가명(FK))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폴리모피조 팀 관계형 스키마(논리적 설계)</t>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한그룹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답글번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답글내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답글제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답글작성일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지글번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰글번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의글번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QnA답글게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨부파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨부파일번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일원본이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확장자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판글번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴리모피즘 팀 관계형 스키마 (논리적설계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급번호(idx)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처리상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구독번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출고번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구독(결제)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매(결제)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출고수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송장번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>택배업체명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도착예정일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작가명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공급일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공급량</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -204,7 +336,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +372,15 @@
     <font>
       <b/>
       <sz val="22"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -302,12 +443,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -333,6 +471,18 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -348,6 +498,1037 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>225287</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>162949</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>664029</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>165653</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="직선 연결선 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62157CCC-4519-4A78-A355-3F3A6A431642}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="225287" y="8331589"/>
+          <a:ext cx="438742" cy="2704"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>218661</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>53341</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>231913</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="직선 연결선 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80C4DC0E-DCC1-460D-8759-04C8C8F469AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="218661" y="7513321"/>
+          <a:ext cx="13252" cy="820971"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>220525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>55463</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="직선 화살표 연결선 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{811C4A87-AFC3-4CBF-923A-72BE9361600D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="220525" y="7513320"/>
+          <a:ext cx="396695" cy="2123"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>375857</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>160880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="직선 연결선 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AE869A8-FD0B-40BA-859A-BF061A15670E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="375857" y="9061040"/>
+          <a:ext cx="317563" cy="14380"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371061</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>60966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>380653</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>175254</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="직선 연결선 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{674345E4-24A1-42A7-BD41-17480E4BD9B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371061" y="4709166"/>
+          <a:ext cx="9592" cy="4366248"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>372410</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>578188</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>72251</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="직선 화살표 연결선 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B5DE85D-774C-41C9-8F84-134F95C456C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="372410" y="4709160"/>
+          <a:ext cx="205778" cy="11291"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371061</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>380653</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>175248</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="직선 연결선 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1435C180-1928-4D5C-9B68-F140F38F2937}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371061" y="4709160"/>
+          <a:ext cx="9592" cy="4366248"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>380030</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>585808</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>117971</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="직선 화살표 연결선 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E19025F7-3224-49D8-9494-F3460C76E1DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="380030" y="5440680"/>
+          <a:ext cx="205778" cy="11291"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>244642</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>20053</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>246184</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>5862</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="직선 연결선 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1156A24D-1CE1-4D42-8391-0D47C3DFD7CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2791326" y="2346158"/>
+          <a:ext cx="1542" cy="230451"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>580293</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>5861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>252046</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>11723</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="직선 연결선 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF039B42-5864-48F2-8BA6-D4CD6D96E4DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1250051" y="2331966"/>
+          <a:ext cx="1548679" cy="5862"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>580293</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>211016</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>586154</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>5862</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="직선 화살표 연결선 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11DD4F10-451A-49E9-8EDF-05BEE4C45788}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1248508" y="2110154"/>
+          <a:ext cx="5861" cy="240323"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>661736</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>4011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>663278</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>13883</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="직선 연결선 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{463BC15D-3ADB-428D-B46F-E552BA9C339E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2261936" y="2795337"/>
+          <a:ext cx="1542" cy="230451"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>874295</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>7712</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>673152</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12032</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="직선 연결선 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F015FB8-4658-4F3D-96B5-9D70C8E45EBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1544053" y="3019617"/>
+          <a:ext cx="729299" cy="4320"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>875528</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>8022</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>882316</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>236621</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="직선 화살표 연결선 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0F0EBAC-0855-4868-A114-A3303D519F89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1545286" y="3019927"/>
+          <a:ext cx="6788" cy="228599"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>661736</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>6417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>663278</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>16289</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="직선 연결선 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91977FAC-02C3-4F56-A219-E9729A395CF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2261936" y="2795337"/>
+          <a:ext cx="1542" cy="230852"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>769620</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>6417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>776036</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="직선 연결선 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC707C87-4DE0-423F-87A8-7411966E5261}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1440180" y="4189797"/>
+          <a:ext cx="6416" cy="130743"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>579491</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7866</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>251244</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>13728</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="직선 연결선 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBF932E2-8AE5-4280-8D9E-84A01723F8D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1250051" y="2331966"/>
+          <a:ext cx="1546273" cy="5862"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>769991</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>137406</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>441744</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>143268</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="직선 연결선 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AAD5042-AA8E-47EB-B8D9-D6675CE12FB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1440551" y="4320786"/>
+          <a:ext cx="1546273" cy="5862"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>874726</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>10027</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>881514</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>238626</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="직선 화살표 연결선 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7D04BD7-F9FF-4B27-AD80-1045245D8CF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1545286" y="3019927"/>
+          <a:ext cx="6788" cy="228599"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>432766</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>139567</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>236220</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="직선 화살표 연결선 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54FC7961-38F9-47E6-B28D-E3E45427E9E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2977846" y="4322947"/>
+          <a:ext cx="9194" cy="317633"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -647,270 +1828,480 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E98072-32C8-424E-8A7E-5FDFEB4D09F9}">
-  <dimension ref="B1:M18"/>
+  <dimension ref="B1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="6"/>
-    <col min="2" max="2" width="11.69921875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.3984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.796875" style="6"/>
-    <col min="6" max="6" width="10.3984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.796875" style="6"/>
-    <col min="9" max="9" width="8.59765625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.8984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.3984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.796875" style="6"/>
+    <col min="1" max="1" width="8.796875" style="5"/>
+    <col min="2" max="2" width="12.19921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.796875" style="5"/>
+    <col min="5" max="5" width="10.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.796875" style="5"/>
+    <col min="8" max="8" width="8.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5" style="5" customWidth="1"/>
+    <col min="10" max="10" width="4.8984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="2:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" spans="2:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="2:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="2:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="B6" s="9"/>
+      <c r="C6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B8" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B11" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="B12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B14" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B17" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="2:12" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B20" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="B21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" s="7"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-    </row>
-    <row r="2" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-    </row>
-    <row r="3" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-    </row>
-    <row r="4" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
+      <c r="C24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="H24" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B26" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B29" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B32" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B35" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B38" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B39" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="M11" s="8"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="F39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="3" t="s">
+      <c r="H39" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>20</v>
+    </row>
+    <row r="40" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B41" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B42" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B44" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B45" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B47" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B48" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B50" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B51" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B53" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B54" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:L4"/>
+    <mergeCell ref="B1:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>